--- a/data/2a.xlsx
+++ b/data/2a.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,145 +458,145 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sub001</t>
+          <t>sub057</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20161212002136</t>
+          <t>20170825001844</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D2" t="n">
-        <v>48919</v>
+        <v>8044</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sub002</t>
+          <t>sub018</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20160406002131</t>
+          <t>20160602001707</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="n">
-        <v>23526</v>
+        <v>23890</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sub003</t>
+          <t>sub031</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20160413000006</t>
+          <t>20170307002130</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D4" t="n">
-        <v>32621</v>
+        <v>17339</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sub004</t>
+          <t>sub034</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>20161215001667</t>
+          <t>20170119000729</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D5" t="n">
-        <v>22191</v>
+        <v>10958</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sub005</t>
+          <t>sub060</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20161222000978</t>
+          <t>20180109000613</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D6" t="n">
-        <v>47392</v>
+        <v>33604</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sub006</t>
+          <t>sub061</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20161110001074</t>
+          <t>20180226000725</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D7" t="n">
-        <v>97503</v>
+        <v>15164</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>sub007</t>
+          <t>sub093</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>20161208000139</t>
+          <t>20181214000208</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D8" t="n">
-        <v>32434</v>
+        <v>4923</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sub008</t>
+          <t>sub100</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20161219000091</t>
+          <t>20180314000010</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D9" t="n">
-        <v>14353</v>
+        <v>7367</v>
       </c>
     </row>
     <row r="10">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="D10" t="n">
         <v>18799</v>
@@ -620,73 +620,73 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>sub010</t>
+          <t>sub020</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>20161012002008</t>
+          <t>20160723000013</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="D11" t="n">
-        <v>15272</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>sub011</t>
+          <t>sub004</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>20160209000219</t>
+          <t>20161215001667</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>5080</v>
+        <v>22191</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>sub012</t>
+          <t>sub010</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>20161031001142</t>
+          <t>20161012002008</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>15254</v>
+        <v>15272</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>sub013</t>
+          <t>sub011</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>20161124000397</t>
+          <t>20160209000219</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>9694</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="15">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>12291</v>
@@ -710,991 +710,991 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>sub015</t>
+          <t>sub016</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>20161013001234</t>
+          <t>20161130000004</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>5759</v>
+        <v>28955</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>sub016</t>
+          <t>sub021</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>20161130000004</t>
+          <t>20160317001244</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>28955</v>
+        <v>12852</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>sub017</t>
+          <t>sub022</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>20160510002436</t>
+          <t>20160803001239</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>11533</v>
+        <v>5463</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>sub018</t>
+          <t>sub026</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>20160602001707</t>
+          <t>20171008000512</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>23890</v>
+        <v>21095</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>sub019</t>
+          <t>sub038</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>20160117000135</t>
+          <t>20170518002194</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>11107</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>sub020</t>
+          <t>sub040</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>20160723000013</t>
+          <t>20170902000876</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>160</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>sub021</t>
+          <t>sub041</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>20160317001244</t>
+          <t>20171002000282</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>12852</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>sub022</t>
+          <t>sub046</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>20160803001239</t>
+          <t>20170511000016</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>5463</v>
+        <v>37663</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>sub023</t>
+          <t>sub048</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>20160321000142</t>
+          <t>20170402000556</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>42734</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>sub024</t>
+          <t>sub054</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>20170802000637</t>
+          <t>20170612002216</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>9317</v>
+        <v>12628</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>sub025</t>
+          <t>sub055</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>20171226002293</t>
+          <t>20170316001977</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>9073</v>
+        <v>15417</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>sub026</t>
+          <t>sub059</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>20171008000512</t>
+          <t>20170912002314</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>21095</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>sub027</t>
+          <t>sub064</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>20170206000071</t>
+          <t>20180801000501</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>7286</v>
+        <v>7239</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>sub028</t>
+          <t>sub079</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>20171013002097</t>
+          <t>20180929000037</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>16568</v>
+        <v>7317</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>sub029</t>
+          <t>sub082</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>20170607000010</t>
+          <t>20180221000793</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>44907</v>
+        <v>33837</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>sub030</t>
+          <t>sub085</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>20171025000480</t>
+          <t>20181127002511</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>18378</v>
+        <v>53627</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>sub031</t>
+          <t>sub095</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>20170307002130</t>
+          <t>20180316001329</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>17339</v>
+        <v>13198</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>sub032</t>
+          <t>sub096</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>20171009000137</t>
+          <t>20180802001789</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>746</v>
+        <v>5951</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>sub033</t>
+          <t>sub032</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>20170115000362</t>
+          <t>20171009000137</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D34" t="n">
-        <v>1500</v>
+        <v>746</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>sub034</t>
+          <t>sub056</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>20170119000729</t>
+          <t>20170120000152</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D35" t="n">
-        <v>10958</v>
+        <v>29701</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>sub035</t>
+          <t>sub074</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>20171014001244</t>
+          <t>20180719000020</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D36" t="n">
-        <v>15345</v>
+        <v>29318</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>sub036</t>
+          <t>sub076</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>20170204001714</t>
+          <t>20180619002401</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D37" t="n">
-        <v>16707</v>
+        <v>10154</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>sub037</t>
+          <t>sub084</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>20170426000005</t>
+          <t>20180716000006</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D38" t="n">
-        <v>19961</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>sub038</t>
+          <t>sub087</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>20170518002194</t>
+          <t>20180216000198</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D39" t="n">
-        <v>4386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>sub039</t>
+          <t>sub089</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>20170425002487</t>
+          <t>20180314002318</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D40" t="n">
-        <v>16139</v>
+        <v>9695</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>sub040</t>
+          <t>sub003</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>20170902000876</t>
+          <t>20160413000006</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>4401</v>
+        <v>32621</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>sub041</t>
+          <t>sub008</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>20171002000282</t>
+          <t>20161219000091</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>5169</v>
+        <v>14353</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>sub042</t>
+          <t>sub012</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>20170420000636</t>
+          <t>20161031001142</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>12949</v>
+        <v>15254</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>sub043</t>
+          <t>sub017</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>20170325000428</t>
+          <t>20160510002436</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>20931</v>
+        <v>11533</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>sub044</t>
+          <t>sub023</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>20170528000084</t>
+          <t>20160321000142</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>26140</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>sub045</t>
+          <t>sub028</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>20170324001892</t>
+          <t>20171013002097</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>6480</v>
+        <v>16568</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>sub046</t>
+          <t>sub037</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>20170511000016</t>
+          <t>20170426000005</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>37663</v>
+        <v>19961</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>sub047</t>
+          <t>sub039</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>20171019001652</t>
+          <t>20170425002487</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>5848</v>
+        <v>16139</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>sub048</t>
+          <t>sub042</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>20170402000556</t>
+          <t>20170420000636</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>4473</v>
+        <v>12949</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>sub049</t>
+          <t>sub045</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>20171005000770</t>
+          <t>20170324001892</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>3955</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>sub050</t>
+          <t>sub047</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>20171105000372</t>
+          <t>20171019001652</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>8814</v>
+        <v>5848</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>sub051</t>
+          <t>sub053</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>20170422000935</t>
+          <t>20170511001392</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>16801</v>
+        <v>16764</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>sub052</t>
+          <t>sub065</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>20170608001310</t>
+          <t>20180131001727</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>7036</v>
+        <v>45074</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>sub053</t>
+          <t>sub068</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>20170511001392</t>
+          <t>20180412001426</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>16764</v>
+        <v>14681</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>sub054</t>
+          <t>sub069</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>20170612002216</t>
+          <t>20180619001505</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>12628</v>
+        <v>41370</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>sub055</t>
+          <t>sub071</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>20170316001977</t>
+          <t>20181103001264</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>15417</v>
+        <v>27830</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>sub056</t>
+          <t>sub072</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>20170120000152</t>
+          <t>20181007000826</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>29701</v>
+        <v>10390</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>sub057</t>
+          <t>sub073</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>20170825001844</t>
+          <t>20180911001645</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>8044</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>sub058</t>
+          <t>sub077</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>20170125000984</t>
+          <t>20180503002304</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>11479</v>
+        <v>9003</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>sub059</t>
+          <t>sub090</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>20170912002314</t>
+          <t>20180910002366</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>1396</v>
+        <v>29614</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>sub060</t>
+          <t>sub092</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>20180109000613</t>
+          <t>20181116001089</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>33604</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>sub061</t>
+          <t>sub085</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>20180226000725</t>
+          <t>20181127002541</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>2.196388888888889</v>
       </c>
       <c r="D62" t="n">
-        <v>15164</v>
+        <v>46988</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>sub062</t>
+          <t>sub001</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>20181221002264</t>
+          <t>20161212002136</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D63" t="n">
-        <v>10197</v>
+        <v>48919</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>sub063</t>
+          <t>sub098</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>20181020001229</t>
+          <t>20180612002507</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D64" t="n">
-        <v>7625</v>
+        <v>39868</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>sub064</t>
+          <t>sub002</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>20180801000501</t>
+          <t>20160406002131</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>7239</v>
+        <v>23526</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>sub065</t>
+          <t>sub013</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>20180131001727</t>
+          <t>20161124000397</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>45074</v>
+        <v>9694</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>sub066</t>
+          <t>sub027</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>20181208000909</t>
+          <t>20170206000071</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>20309</v>
+        <v>7286</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>sub067</t>
+          <t>sub035</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>20181207001317</t>
+          <t>20171014001244</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>4242</v>
+        <v>15345</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>sub068</t>
+          <t>sub036</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>20180412001426</t>
+          <t>20170204001714</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>14681</v>
+        <v>16707</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>sub069</t>
+          <t>sub062</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>20180619001505</t>
+          <t>20181221002264</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>41370</v>
+        <v>10197</v>
       </c>
     </row>
     <row r="71">
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>8178</v>
@@ -1718,163 +1718,163 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>sub071</t>
+          <t>sub075</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>20181103001264</t>
+          <t>20180428001767</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>27830</v>
+        <v>17633</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>sub072</t>
+          <t>sub081</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>20181007000826</t>
+          <t>20180120000249</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>10390</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>sub073</t>
+          <t>sub086</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>20180911001645</t>
+          <t>20180108000002</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>3974</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>sub074</t>
+          <t>sub091</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>20180719000020</t>
+          <t>20181019001130</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>29318</v>
+        <v>5318</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>sub075</t>
+          <t>sub097</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>20180428001767</t>
+          <t>20181010000767</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>17633</v>
+        <v>10227</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>sub076</t>
+          <t>sub099</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>20180619002401</t>
+          <t>20180620002296</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>10154</v>
+        <v>9653</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>sub077</t>
+          <t>sub093</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>20180503002304</t>
+          <t>20181214001184</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>3.577777777777778</v>
       </c>
       <c r="D78" t="n">
-        <v>9003</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>sub078</t>
+          <t>sub052</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>20180929000040</t>
+          <t>20170608001310</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>2679</v>
+        <v>7036</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>sub079</t>
+          <t>sub067</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>20180929000037</t>
+          <t>20181207001317</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>7317</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="81">
@@ -1889,7 +1889,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>12087</v>
@@ -1898,253 +1898,253 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>sub081</t>
+          <t>sub031</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>20180120000249</t>
+          <t>20170308000005</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>4.168333333333333</v>
       </c>
       <c r="D82" t="n">
-        <v>1091</v>
+        <v>35646</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>sub082</t>
+          <t>sub005</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>20180221000793</t>
+          <t>20161222000978</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>33837</v>
+        <v>47392</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>sub083</t>
+          <t>sub015</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>20181004000706</t>
+          <t>20161013001234</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>23326</v>
+        <v>5759</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>sub084</t>
+          <t>sub024</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>20180716000006</t>
+          <t>20170802000637</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>3216</v>
+        <v>9317</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>sub085</t>
+          <t>sub051</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>20181127002511</t>
+          <t>20170422000935</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>53627</v>
+        <v>16801</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>sub086</t>
+          <t>sub078</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>20180108000002</t>
+          <t>20180929000040</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>3327</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>sub087</t>
+          <t>sub094</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>20180216000198</t>
+          <t>20180412001795</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>398</v>
+        <v>7667</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>sub088</t>
+          <t>sub034</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>20180521000314</t>
+          <t>20170119001231</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>5.475555555555555</v>
       </c>
       <c r="D89" t="n">
-        <v>23528</v>
+        <v>33449</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>sub089</t>
+          <t>sub041</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>20180314002318</t>
+          <t>20171002000349</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>5.939444444444445</v>
       </c>
       <c r="D90" t="n">
-        <v>9695</v>
+        <v>6081</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>sub090</t>
+          <t>sub033</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>20180910002366</t>
+          <t>20170115000362</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>29614</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>sub091</t>
+          <t>sub044</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>20181019001130</t>
+          <t>20170528000084</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>5318</v>
+        <v>26140</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>sub092</t>
+          <t>sub020</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>20181116001089</t>
+          <t>20160723000134</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>6.098888888888889</v>
       </c>
       <c r="D93" t="n">
-        <v>1084</v>
+        <v>527</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>sub093</t>
+          <t>sub061</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>20181214000208</t>
+          <t>20180226001961</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>6.541666666666667</v>
       </c>
       <c r="D94" t="n">
-        <v>4923</v>
+        <v>21082</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>sub094</t>
+          <t>sub025</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>20180412001795</t>
+          <t>20171226002293</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D95" t="n">
-        <v>7667</v>
+        <v>9073</v>
       </c>
     </row>
     <row r="96">
@@ -2155,2246 +2155,2246 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>20180316001329</t>
+          <t>20180316002044</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>7.431666666666667</v>
       </c>
       <c r="D96" t="n">
-        <v>13198</v>
+        <v>82848</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>sub096</t>
+          <t>sub029</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>20180802001789</t>
+          <t>20170607000010</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D97" t="n">
-        <v>5951</v>
+        <v>44907</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>sub097</t>
+          <t>sub030</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>20181010000767</t>
+          <t>20171025000480</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D98" t="n">
-        <v>10227</v>
+        <v>18378</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>sub098</t>
+          <t>sub066</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>20180612002507</t>
+          <t>20181208000909</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D99" t="n">
-        <v>39868</v>
+        <v>20309</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>sub099</t>
+          <t>sub064</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>20180620002296</t>
+          <t>20180801001638</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>8.055555555555555</v>
       </c>
       <c r="D100" t="n">
-        <v>9653</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>sub100</t>
+          <t>sub001</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>20180314000010</t>
+          <t>20161213000009</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>8.268333333333334</v>
       </c>
       <c r="D101" t="n">
-        <v>7367</v>
+        <v>57898</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>sub085</t>
+          <t>sub019</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>20181127002541</t>
+          <t>20160117000135</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1.196388888888889</v>
+        <v>9</v>
       </c>
       <c r="D102" t="n">
-        <v>46988</v>
+        <v>11107</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>sub093</t>
+          <t>sub043</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>20181214001184</t>
+          <t>20170325000428</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>3.077777777777778</v>
+        <v>9</v>
       </c>
       <c r="D103" t="n">
-        <v>3943</v>
+        <v>20931</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>sub031</t>
+          <t>sub056</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>20170308000005</t>
+          <t>20170120001086</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>3.668333333333333</v>
+        <v>9.029166666666667</v>
       </c>
       <c r="D104" t="n">
-        <v>35646</v>
+        <v>32460</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>sub066</t>
+          <t>sub050</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>20181208001080</t>
+          <t>20171105000372</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>4.421944444444445</v>
+        <v>9.5</v>
       </c>
       <c r="D105" t="n">
-        <v>39676</v>
+        <v>8814</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>sub041</t>
+          <t>sub003</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>20171002000349</t>
+          <t>20160413000428</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>4.939444444444445</v>
+        <v>9.522500000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>6081</v>
+        <v>41292</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>sub034</t>
+          <t>sub070</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>20170119001231</t>
+          <t>20180427001710</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>4.975555555555555</v>
+        <v>9.653333333333332</v>
       </c>
       <c r="D107" t="n">
-        <v>33449</v>
+        <v>10374</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>sub020</t>
+          <t>sub049</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>20160723000134</t>
+          <t>20171005000770</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>5.428888888888889</v>
+        <v>10</v>
       </c>
       <c r="D108" t="n">
-        <v>527</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>sub001</t>
+          <t>sub058</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>20161213000009</t>
+          <t>20170125000984</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>5.768333333333334</v>
+        <v>10</v>
       </c>
       <c r="D109" t="n">
-        <v>57898</v>
+        <v>11479</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>sub061</t>
+          <t>sub063</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>20180226001961</t>
+          <t>20181020001229</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>6.041666666666667</v>
+        <v>10</v>
       </c>
       <c r="D110" t="n">
-        <v>21082</v>
+        <v>7625</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>sub095</t>
+          <t>sub083</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>20180316002044</t>
+          <t>20181004000706</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>6.431666666666667</v>
+        <v>10</v>
       </c>
       <c r="D111" t="n">
-        <v>82848</v>
+        <v>23326</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>sub070</t>
+          <t>sub088</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>20180427001710</t>
+          <t>20180521000314</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>6.653333333333333</v>
+        <v>10</v>
       </c>
       <c r="D112" t="n">
-        <v>10374</v>
+        <v>23528</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>sub064</t>
+          <t>sub008</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>20180801001638</t>
+          <t>20161219001731</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>7.055555555555555</v>
+        <v>10.24555555555555</v>
       </c>
       <c r="D113" t="n">
-        <v>4015</v>
+        <v>32889</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>sub003</t>
+          <t>sub074</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>20160413000428</t>
+          <t>20180719000630</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>7.5225</v>
+        <v>11.35166666666667</v>
       </c>
       <c r="D114" t="n">
-        <v>41292</v>
+        <v>40785</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>sub056</t>
+          <t>sub012</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>20170120001086</t>
+          <t>20161031002005</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>7.529166666666667</v>
+        <v>11.54277777777778</v>
       </c>
       <c r="D115" t="n">
-        <v>32460</v>
+        <v>16723</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>sub008</t>
+          <t>sub040</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>20161219001731</t>
+          <t>20170903000118</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>8.245555555555555</v>
+        <v>11.68361111111111</v>
       </c>
       <c r="D116" t="n">
-        <v>32889</v>
+        <v>16232</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>sub019</t>
+          <t>sub092</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>20160117000328</t>
+          <t>20181116002098</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>9.320833333333333</v>
+        <v>11.92472222222222</v>
       </c>
       <c r="D117" t="n">
-        <v>16594</v>
+        <v>711</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>sub012</t>
+          <t>sub031</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>20161031002005</t>
+          <t>20170308000402</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>9.542777777777777</v>
+        <v>11.96861111111111</v>
       </c>
       <c r="D118" t="n">
-        <v>16723</v>
+        <v>44392</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>sub074</t>
+          <t>sub066</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>20180719000630</t>
+          <t>20181208001080</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>9.851666666666667</v>
+        <v>12.42194444444445</v>
       </c>
       <c r="D119" t="n">
-        <v>40785</v>
+        <v>39676</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>sub092</t>
+          <t>sub048</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>20181116002098</t>
+          <t>20170403000017</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>9.924722222222222</v>
+        <v>12.86083333333333</v>
       </c>
       <c r="D120" t="n">
-        <v>711</v>
+        <v>30752</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>sub075</t>
+          <t>sub090</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>20180429000157</t>
+          <t>20180911000590</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>10.66611111111111</v>
+        <v>13.17388888888889</v>
       </c>
       <c r="D121" t="n">
-        <v>13297</v>
+        <v>76322</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>sub040</t>
+          <t>sub016</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>20170903000118</t>
+          <t>20161130001700</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>10.68361111111111</v>
+        <v>13.33416666666667</v>
       </c>
       <c r="D122" t="n">
-        <v>16232</v>
+        <v>36267</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>sub090</t>
+          <t>sub084</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>20180911000590</t>
+          <t>20180716001552</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>11.17388888888889</v>
+        <v>13.4425</v>
       </c>
       <c r="D123" t="n">
-        <v>76322</v>
+        <v>11371</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>sub031</t>
+          <t>sub075</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>20170308000402</t>
+          <t>20180429000157</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>11.46861111111111</v>
+        <v>13.66611111111111</v>
       </c>
       <c r="D124" t="n">
-        <v>44392</v>
+        <v>13297</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>sub058</t>
+          <t>sub096</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>20170126000273</t>
+          <t>20180803000170</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>11.66</v>
+        <v>13.76138888888889</v>
       </c>
       <c r="D125" t="n">
-        <v>18889</v>
+        <v>6094</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>sub048</t>
+          <t>sub077</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>20170403000017</t>
+          <t>20180504000867</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>11.86083333333333</v>
+        <v>14.11944444444444</v>
       </c>
       <c r="D126" t="n">
-        <v>30752</v>
+        <v>31618</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>sub002</t>
+          <t>sub057</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>20160407000424</t>
+          <t>20170826000392</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>11.92333333333333</v>
+        <v>14.61583333333333</v>
       </c>
       <c r="D127" t="n">
-        <v>23390</v>
+        <v>8452</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>sub084</t>
+          <t>sub017</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>20180716001552</t>
+          <t>20160511000980</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>11.9425</v>
+        <v>14.87027777777778</v>
       </c>
       <c r="D128" t="n">
-        <v>11371</v>
+        <v>22075</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>sub077</t>
+          <t>sub002</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>20180504000867</t>
+          <t>20160407000424</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>12.11944444444444</v>
+        <v>14.92333333333333</v>
       </c>
       <c r="D129" t="n">
-        <v>31618</v>
+        <v>23390</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>sub016</t>
+          <t>sub010</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>20161130001700</t>
+          <t>20161013000753</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>12.33416666666667</v>
+        <v>15</v>
       </c>
       <c r="D130" t="n">
-        <v>36267</v>
+        <v>22355</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>sub096</t>
+          <t>sub045</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>20180803000170</t>
+          <t>20170325000334</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>12.76138888888889</v>
+        <v>15.18416666666667</v>
       </c>
       <c r="D131" t="n">
-        <v>6094</v>
+        <v>9541</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>sub017</t>
+          <t>sub018</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>20160511000980</t>
+          <t>20160603000687</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>12.87027777777778</v>
+        <v>15.57111111111111</v>
       </c>
       <c r="D132" t="n">
-        <v>22075</v>
+        <v>38354</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>sub045</t>
+          <t>sub037</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>20170325000334</t>
+          <t>20170426001364</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>13.18416666666667</v>
+        <v>15.58111111111111</v>
       </c>
       <c r="D133" t="n">
-        <v>9541</v>
+        <v>40092</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>sub037</t>
+          <t>sub085</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>20170426001364</t>
+          <t>20181128001449</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>13.58111111111111</v>
+        <v>15.61333333333333</v>
       </c>
       <c r="D134" t="n">
-        <v>40092</v>
+        <v>58358</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>sub010</t>
+          <t>sub038</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>20161013000753</t>
+          <t>20170519000681</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>14</v>
+        <v>15.80916666666667</v>
       </c>
       <c r="D135" t="n">
-        <v>22355</v>
+        <v>10710</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>sub071</t>
+          <t>sub076</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>20181104000282</t>
+          <t>20180620000767</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>14.26</v>
+        <v>15.99361111111111</v>
       </c>
       <c r="D136" t="n">
-        <v>33546</v>
+        <v>12104</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>sub057</t>
+          <t>sub054</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>20170826000392</t>
+          <t>20170613000531</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>14.36583333333333</v>
+        <v>16.225</v>
       </c>
       <c r="D137" t="n">
-        <v>8452</v>
+        <v>16033</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>sub076</t>
+          <t>sub071</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>20180620000767</t>
+          <t>20181104000282</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>14.49361111111111</v>
+        <v>16.26</v>
       </c>
       <c r="D138" t="n">
-        <v>12104</v>
+        <v>33546</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>sub085</t>
+          <t>sub087</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>20181128001449</t>
+          <t>20180217000114</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>14.61333333333333</v>
+        <v>16.54861111111111</v>
       </c>
       <c r="D139" t="n">
-        <v>58358</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>sub099</t>
+          <t>sub004</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>20180621000781</t>
+          <t>20161216001119</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>14.67277777777778</v>
+        <v>16.97416666666667</v>
       </c>
       <c r="D140" t="n">
-        <v>19517</v>
+        <v>18956</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>sub038</t>
+          <t>sub011</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>20170519000681</t>
+          <t>20160210000086</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>14.80916666666667</v>
+        <v>17.14027777777778</v>
       </c>
       <c r="D141" t="n">
-        <v>10710</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>sub087</t>
+          <t>sub028</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>20180217000114</t>
+          <t>20171014000213</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>15.04861111111111</v>
+        <v>17.37</v>
       </c>
       <c r="D142" t="n">
-        <v>1776</v>
+        <v>26888</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>sub018</t>
+          <t>sub099</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>20160603000687</t>
+          <t>20180621000781</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>15.07111111111111</v>
+        <v>17.67277777777778</v>
       </c>
       <c r="D143" t="n">
-        <v>38354</v>
+        <v>19517</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>sub054</t>
+          <t>sub065</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>20170613000531</t>
+          <t>20180201000723</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>15.225</v>
+        <v>17.71111111111111</v>
       </c>
       <c r="D144" t="n">
-        <v>16033</v>
+        <v>38474</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>sub062</t>
+          <t>sub007</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>20181222000777</t>
+          <t>20161208000139</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>15.29388888888889</v>
+        <v>18</v>
       </c>
       <c r="D145" t="n">
-        <v>13043</v>
+        <v>32434</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>sub028</t>
+          <t>sub062</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>20171014000213</t>
+          <t>20181222000777</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>15.37</v>
+        <v>18.29388888888889</v>
       </c>
       <c r="D146" t="n">
-        <v>26888</v>
+        <v>13043</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>sub086</t>
+          <t>sub019</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>20180108001799</t>
+          <t>20160117000328</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>15.41138888888889</v>
+        <v>18.32083333333333</v>
       </c>
       <c r="D147" t="n">
-        <v>1154</v>
+        <v>16594</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>sub065</t>
+          <t>sub086</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>20180201000723</t>
+          <t>20180108001799</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>15.71111111111111</v>
+        <v>18.41138888888889</v>
       </c>
       <c r="D148" t="n">
-        <v>38474</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>sub004</t>
+          <t>sub072</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>20161216001119</t>
+          <t>20181008001326</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>15.97416666666667</v>
+        <v>19.6525</v>
       </c>
       <c r="D149" t="n">
-        <v>18956</v>
+        <v>18574</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>sub011</t>
+          <t>sub080</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>20160210000086</t>
+          <t>20180131001357</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>16.14027777777778</v>
+        <v>20.57333333333333</v>
       </c>
       <c r="D150" t="n">
-        <v>3642</v>
+        <v>13771</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>sub080</t>
+          <t>sub047</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>20180131001357</t>
+          <t>20171020000640</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>16.57333333333333</v>
+        <v>20.82361111111111</v>
       </c>
       <c r="D151" t="n">
-        <v>13771</v>
+        <v>9150</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>sub049</t>
+          <t>sub035</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>20171006000134</t>
+          <t>20171015000402</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>16.58666666666667</v>
+        <v>20.87472222222222</v>
       </c>
       <c r="D152" t="n">
-        <v>4024</v>
+        <v>21633</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>sub025</t>
+          <t>sub089</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>20171227001508</t>
+          <t>20180315001513</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>17.18972222222222</v>
+        <v>21.41388888888889</v>
       </c>
       <c r="D153" t="n">
-        <v>17400</v>
+        <v>17750</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>sub072</t>
+          <t>sub022</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>20181008001326</t>
+          <t>20160804000871</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>17.6525</v>
+        <v>21.45972222222222</v>
       </c>
       <c r="D154" t="n">
-        <v>18574</v>
+        <v>8707</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>sub063</t>
+          <t>sub058</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>20181021000256</t>
+          <t>20170126000273</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>17.76166666666667</v>
+        <v>21.66</v>
       </c>
       <c r="D155" t="n">
-        <v>9134</v>
+        <v>18889</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>sub035</t>
+          <t>sub026</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>20171015000402</t>
+          <t>20171009000491</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>17.87472222222222</v>
+        <v>22.57583333333333</v>
       </c>
       <c r="D156" t="n">
-        <v>21633</v>
+        <v>19888</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>sub047</t>
+          <t>sub014</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>20171020000640</t>
+          <t>20160514000767</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>18.82361111111111</v>
+        <v>23.39333333333333</v>
       </c>
       <c r="D157" t="n">
-        <v>9150</v>
+        <v>19434</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>sub089</t>
+          <t>sub060</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>20180315001513</t>
+          <t>20180110000314</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>19.91388888888889</v>
+        <v>23.72611111111111</v>
       </c>
       <c r="D158" t="n">
-        <v>17750</v>
+        <v>44899</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>sub022</t>
+          <t>sub082</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>20160804000871</t>
+          <t>20180222001210</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>20.45972222222222</v>
+        <v>23.89416666666667</v>
       </c>
       <c r="D159" t="n">
-        <v>8707</v>
+        <v>28344</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>sub005</t>
+          <t>sub006</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>20161223000561</t>
+          <t>20161110001074</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>21.4675</v>
+        <v>24</v>
       </c>
       <c r="D160" t="n">
-        <v>23182</v>
+        <v>97503</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>sub026</t>
+          <t>sub025</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>20171009000491</t>
+          <t>20171227001508</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>21.57583333333333</v>
+        <v>24.18972222222222</v>
       </c>
       <c r="D161" t="n">
-        <v>19888</v>
+        <v>17400</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>sub014</t>
+          <t>sub093</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>20160514000767</t>
+          <t>20181215000310</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>22.39333333333333</v>
+        <v>25.48055555555555</v>
       </c>
       <c r="D162" t="n">
-        <v>19434</v>
+        <v>6974</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>sub082</t>
+          <t>sub056</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>20180222001210</t>
+          <t>20170121000040</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>22.89416666666667</v>
+        <v>25.53861111111111</v>
       </c>
       <c r="D163" t="n">
-        <v>28344</v>
+        <v>34017</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>sub091</t>
+          <t>sub042</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>20181020000196</t>
+          <t>20170421000201</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>23.08666666666667</v>
+        <v>25.93888888888889</v>
       </c>
       <c r="D164" t="n">
-        <v>11482</v>
+        <v>20132</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>sub060</t>
+          <t>sub061</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>20180110000314</t>
+          <t>20180227001210</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>23.22611111111111</v>
+        <v>25.99</v>
       </c>
       <c r="D165" t="n">
-        <v>44899</v>
+        <v>53924</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>sub013</t>
+          <t>sub091</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>20161125000211</t>
+          <t>20181020000196</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>23.46416666666667</v>
+        <v>26.08666666666667</v>
       </c>
       <c r="D166" t="n">
-        <v>9249</v>
+        <v>11482</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>sub006</t>
+          <t>sub013</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>20161111000989</t>
+          <t>20161125000211</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>23.87444444444445</v>
+        <v>26.46416666666667</v>
       </c>
       <c r="D167" t="n">
-        <v>95384</v>
+        <v>9249</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>sub094</t>
+          <t>sub005</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>20180413000936</t>
+          <t>20161223000561</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>23.91083333333333</v>
+        <v>26.4675</v>
       </c>
       <c r="D168" t="n">
-        <v>15664</v>
+        <v>23182</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>sub042</t>
+          <t>sub049</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>20170421000201</t>
+          <t>20171006000134</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>23.93888888888889</v>
+        <v>26.58666666666667</v>
       </c>
       <c r="D169" t="n">
-        <v>20132</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>sub056</t>
+          <t>sub073</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>20170121000040</t>
+          <t>20180912001604</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>24.03861111111111</v>
+        <v>26.79444444444444</v>
       </c>
       <c r="D170" t="n">
-        <v>34017</v>
+        <v>6752</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>sub067</t>
+          <t>sub081</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>20181208000645</t>
+          <t>20180121000146</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>24.31388888888889</v>
+        <v>27.42166666666667</v>
       </c>
       <c r="D171" t="n">
-        <v>5065</v>
+        <v>11074</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>sub024</t>
+          <t>sub063</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>20170803000565</t>
+          <t>20181021000256</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>24.36388888888889</v>
+        <v>27.76166666666667</v>
       </c>
       <c r="D172" t="n">
-        <v>7296</v>
+        <v>9134</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>sub081</t>
+          <t>sub079</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>20180121000146</t>
+          <t>20180930000025</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>24.42166666666667</v>
+        <v>27.84722222222222</v>
       </c>
       <c r="D173" t="n">
-        <v>11074</v>
+        <v>6525</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>sub043</t>
+          <t>sub023</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>20170326000173</t>
+          <t>20160322000412</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>24.48611111111111</v>
+        <v>28.16166666666667</v>
       </c>
       <c r="D174" t="n">
-        <v>28785</v>
+        <v>44699</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>sub088</t>
+          <t>sub067</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>20180522000386</t>
+          <t>20181208000645</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>24.7575</v>
+        <v>28.31388888888889</v>
       </c>
       <c r="D175" t="n">
-        <v>13051</v>
+        <v>5065</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>sub073</t>
+          <t>sub094</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>20180912001604</t>
+          <t>20180413000936</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>24.79444444444444</v>
+        <v>28.91083333333333</v>
       </c>
       <c r="D176" t="n">
-        <v>6752</v>
+        <v>15664</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>sub033</t>
+          <t>sub012</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>20170116001884</t>
+          <t>20161101001452</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>24.81305555555555</v>
+        <v>29.06444444444444</v>
       </c>
       <c r="D177" t="n">
-        <v>6706</v>
+        <v>13818</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>sub093</t>
+          <t>sub039</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>20181215000310</t>
+          <t>20170426002156</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>24.98055555555555</v>
+        <v>29.17611111111111</v>
       </c>
       <c r="D178" t="n">
-        <v>6974</v>
+        <v>28012</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>sub030</t>
+          <t>sub021</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>20171026000396</t>
+          <t>20160318001450</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>25.03166666666667</v>
+        <v>29.27972222222222</v>
       </c>
       <c r="D179" t="n">
-        <v>40860</v>
+        <v>19022</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>sub044</t>
+          <t>sub024</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>20170529000225</t>
+          <t>20170803000565</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>25.18527777777778</v>
+        <v>29.36388888888889</v>
       </c>
       <c r="D180" t="n">
-        <v>39633</v>
+        <v>7296</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>sub061</t>
+          <t>sub053</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>20180227001210</t>
+          <t>20170512001517</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>25.49</v>
+        <v>29.79388888888889</v>
       </c>
       <c r="D181" t="n">
-        <v>53924</v>
+        <v>22536</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>sub007</t>
+          <t>sub068</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>20161209000727</t>
+          <t>20180413001629</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>26.08027777777778</v>
+        <v>30.02361111111111</v>
       </c>
       <c r="D182" t="n">
-        <v>20015</v>
+        <v>22769</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>sub023</t>
+          <t>sub027</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>20160322000412</t>
+          <t>20170207001139</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>26.16166666666667</v>
+        <v>30.42666666666667</v>
       </c>
       <c r="D183" t="n">
-        <v>44699</v>
+        <v>40975</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>sub078</t>
+          <t>sub033</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>20180930000024</t>
+          <t>20170116001884</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>26.23972222222222</v>
+        <v>30.81305555555555</v>
       </c>
       <c r="D184" t="n">
-        <v>552</v>
+        <v>6706</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>sub083</t>
+          <t>sub044</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>20181005000866</t>
+          <t>20170529000225</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>26.34805555555555</v>
+        <v>31.18527777777778</v>
       </c>
       <c r="D185" t="n">
-        <v>39556</v>
+        <v>39633</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>sub079</t>
+          <t>sub078</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>20180930000025</t>
+          <t>20180930000024</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>26.84722222222222</v>
+        <v>31.23972222222222</v>
       </c>
       <c r="D186" t="n">
-        <v>6525</v>
+        <v>552</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>sub012</t>
+          <t>sub097</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>20161101001452</t>
+          <t>20181011001620</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>27.06444444444444</v>
+        <v>31.92555555555555</v>
       </c>
       <c r="D187" t="n">
-        <v>13818</v>
+        <v>8635</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>sub039</t>
+          <t>sub030</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>20170426002156</t>
+          <t>20171026000396</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>27.17611111111111</v>
+        <v>33.03166666666667</v>
       </c>
       <c r="D188" t="n">
-        <v>28012</v>
+        <v>40860</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>sub027</t>
+          <t>sub043</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>20170207001139</t>
+          <t>20170326000173</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>27.42666666666667</v>
+        <v>33.48611111111111</v>
       </c>
       <c r="D189" t="n">
-        <v>40975</v>
+        <v>28785</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>sub053</t>
+          <t>sub032</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>20170512001517</t>
+          <t>20171010002199</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>27.79388888888889</v>
+        <v>34.30638888888889</v>
       </c>
       <c r="D190" t="n">
-        <v>22536</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>sub029</t>
+          <t>sub100</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>20170608000391</t>
+          <t>20180315001448</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>27.97138888888889</v>
+        <v>34.73111111111111</v>
       </c>
       <c r="D191" t="n">
-        <v>62015</v>
+        <v>6033</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>sub068</t>
+          <t>sub088</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>20180413001629</t>
+          <t>20180522000386</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>28.02361111111111</v>
+        <v>34.7575</v>
       </c>
       <c r="D192" t="n">
-        <v>22769</v>
+        <v>13051</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>sub021</t>
+          <t>sub074</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>20160318001450</t>
+          <t>20180720001473</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>28.27972222222222</v>
+        <v>35.30111111111111</v>
       </c>
       <c r="D193" t="n">
-        <v>19022</v>
+        <v>55014</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>sub097</t>
+          <t>sub029</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>20181011001620</t>
+          <t>20170608000391</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>28.92555555555555</v>
+        <v>35.97138888888889</v>
       </c>
       <c r="D194" t="n">
-        <v>8635</v>
+        <v>62015</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>sub032</t>
+          <t>sub020</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>20171010002199</t>
+          <t>20160724000304</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>32.80638888888889</v>
+        <v>36.30694444444445</v>
       </c>
       <c r="D195" t="n">
-        <v>6240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>sub019</t>
+          <t>sub083</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>20160118001751</t>
+          <t>20181005000866</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>33.63611111111111</v>
+        <v>36.34805555555555</v>
       </c>
       <c r="D196" t="n">
-        <v>18649</v>
+        <v>39556</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>sub074</t>
+          <t>sub084</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>20180720001473</t>
+          <t>20180717000970</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>33.80111111111111</v>
+        <v>37.73777777777778</v>
       </c>
       <c r="D197" t="n">
-        <v>55014</v>
+        <v>21244</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>sub100</t>
+          <t>sub018</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>20180315001448</t>
+          <t>20160604000217</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>34.23111111111111</v>
+        <v>38.42138888888889</v>
       </c>
       <c r="D198" t="n">
-        <v>6033</v>
+        <v>45387</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>sub020</t>
+          <t>sub010</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>20160724000304</t>
+          <t>20161014000584</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>35.63694444444445</v>
+        <v>39.3325</v>
       </c>
       <c r="D199" t="n">
-        <v>233</v>
+        <v>23424</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>sub084</t>
+          <t>sub036</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>20180717000970</t>
+          <t>20170206000644</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>36.23777777777778</v>
+        <v>39.50111111111111</v>
       </c>
       <c r="D200" t="n">
-        <v>21244</v>
+        <v>35116</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>sub036</t>
+          <t>sub003</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>20170206000644</t>
+          <t>20160414001379</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>36.50111111111111</v>
+        <v>39.59583333333333</v>
       </c>
       <c r="D201" t="n">
-        <v>35116</v>
+        <v>49767</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>sub003</t>
+          <t>sub055</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>20160414001379</t>
+          <t>20170318000524</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>37.59583333333333</v>
+        <v>39.93666666666667</v>
       </c>
       <c r="D202" t="n">
-        <v>49767</v>
+        <v>37897</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>sub018</t>
+          <t>sub009</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>20160604000217</t>
+          <t>20161102000721</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>37.92138888888889</v>
+        <v>40.05611111111111</v>
       </c>
       <c r="D203" t="n">
-        <v>45387</v>
+        <v>22191</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>sub010</t>
+          <t>sub039</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>20161014000584</t>
+          <t>20170427001218</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>38.3325</v>
+        <v>42.49694444444444</v>
       </c>
       <c r="D204" t="n">
-        <v>23424</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>sub051</t>
+          <t>sub099</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>20170424000374</t>
+          <t>20180622000871</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>38.52555555555556</v>
+        <v>42.52944444444444</v>
       </c>
       <c r="D205" t="n">
-        <v>27870</v>
+        <v>30933</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>sub055</t>
+          <t>sub019</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>20170318000524</t>
+          <t>20160118001751</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>38.93666666666667</v>
+        <v>42.63611111111111</v>
       </c>
       <c r="D206" t="n">
-        <v>37897</v>
+        <v>18649</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>sub009</t>
+          <t>sub098</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>20161102000721</t>
+          <t>20180614001471</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>39.38611111111111</v>
+        <v>42.75666666666667</v>
       </c>
       <c r="D207" t="n">
-        <v>22191</v>
+        <v>29007</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>sub099</t>
+          <t>sub051</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>20180622000871</t>
+          <t>20170424000374</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>39.52944444444444</v>
+        <v>43.52555555555556</v>
       </c>
       <c r="D208" t="n">
-        <v>30933</v>
+        <v>27870</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>sub050</t>
+          <t>sub007</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>20171107000717</t>
+          <t>20161209000727</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>39.60388888888889</v>
+        <v>44.08027777777778</v>
       </c>
       <c r="D209" t="n">
-        <v>12524</v>
+        <v>20015</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>sub098</t>
+          <t>sub071</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>20180614001471</t>
+          <t>20181105001034</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>40.25666666666667</v>
+        <v>44.93138888888889</v>
       </c>
       <c r="D210" t="n">
-        <v>29007</v>
+        <v>7538</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>sub039</t>
+          <t>sub069</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>20170427001218</t>
+          <t>20180621000421</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>40.49694444444444</v>
+        <v>45.27638888888889</v>
       </c>
       <c r="D211" t="n">
-        <v>45743</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>sub066</t>
+          <t>sub059</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>20181210000568</t>
+          <t>20170914001504</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>41.89333333333333</v>
+        <v>46.11138888888889</v>
       </c>
       <c r="D212" t="n">
-        <v>34176</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>sub071</t>
+          <t>sub006</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>20181105001034</t>
+          <t>20161111000989</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>42.93138888888889</v>
+        <v>47.87444444444445</v>
       </c>
       <c r="D213" t="n">
-        <v>7538</v>
+        <v>95384</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>sub069</t>
+          <t>sub052</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>20180621000421</t>
+          <t>20170610000326</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>43.27638888888889</v>
+        <v>48.90388888888889</v>
       </c>
       <c r="D214" t="n">
-        <v>44764</v>
+        <v>45266</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>sub052</t>
+          <t>sub060</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>20170610000326</t>
+          <t>20180111000390</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>44.90388888888889</v>
+        <v>49.02222222222223</v>
       </c>
       <c r="D215" t="n">
-        <v>45266</v>
+        <v>40634</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>sub059</t>
+          <t>sub050</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>20170914001504</t>
+          <t>20171107000717</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>45.11138888888889</v>
+        <v>49.10388888888889</v>
       </c>
       <c r="D216" t="n">
-        <v>3226</v>
+        <v>12524</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>sub063</t>
+          <t>sub093</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>20181022002139</t>
+          <t>20181216000074</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>46.87</v>
+        <v>49.34111111111111</v>
       </c>
       <c r="D217" t="n">
-        <v>20963</v>
+        <v>9355</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>sub060</t>
+          <t>sub066</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>20180111000390</t>
+          <t>20181210000568</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>48.52222222222223</v>
+        <v>49.89333333333333</v>
       </c>
       <c r="D218" t="n">
-        <v>40634</v>
+        <v>34176</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>sub093</t>
+          <t>sub056</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>20181216000074</t>
+          <t>20170122000530</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>48.84111111111111</v>
+        <v>52.48527777777777</v>
       </c>
       <c r="D219" t="n">
-        <v>9355</v>
+        <v>28165</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>sub043</t>
+          <t>sub064</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>20170327000459</t>
+          <t>20180803001449</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>49.08083333333333</v>
+        <v>54.88722222222222</v>
       </c>
       <c r="D220" t="n">
-        <v>23317</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="221">
@@ -4409,7 +4409,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>49.21305555555556</v>
+        <v>55.21305555555556</v>
       </c>
       <c r="D221" t="n">
         <v>58778</v>
@@ -4418,163 +4418,163 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>sub058</t>
+          <t>sub063</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>20170128000002</t>
+          <t>20181022002139</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>50.78444444444445</v>
+        <v>56.87</v>
       </c>
       <c r="D222" t="n">
-        <v>16984</v>
+        <v>20963</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>sub056</t>
+          <t>sub043</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>20170122000530</t>
+          <t>20170327000459</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>50.98527777777777</v>
+        <v>58.08083333333333</v>
       </c>
       <c r="D223" t="n">
-        <v>28165</v>
+        <v>23317</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>sub064</t>
+          <t>sub040</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>20180803001449</t>
+          <t>20170905000413</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>53.88722222222222</v>
+        <v>60.10305555555556</v>
       </c>
       <c r="D224" t="n">
-        <v>1169</v>
+        <v>34542</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>sub040</t>
+          <t>sub058</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>20170905000413</t>
+          <t>20170128000002</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>59.10305555555556</v>
+        <v>60.78444444444445</v>
       </c>
       <c r="D225" t="n">
-        <v>34542</v>
+        <v>16984</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>sub025</t>
+          <t>sub076</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>20171229000852</t>
+          <t>20180622000224</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>60.47</v>
+        <v>63.87833333333333</v>
       </c>
       <c r="D226" t="n">
-        <v>27520</v>
+        <v>11581</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>sub033</t>
+          <t>sub048</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>20170118000324</t>
+          <t>20170405000354</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>62.19611111111111</v>
+        <v>63.96527777777778</v>
       </c>
       <c r="D227" t="n">
-        <v>22570</v>
+        <v>43374</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>sub076</t>
+          <t>sub009</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>20180622000224</t>
+          <t>20161103001054</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>62.37833333333333</v>
+        <v>66.16055555555556</v>
       </c>
       <c r="D228" t="n">
-        <v>11581</v>
+        <v>48539</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>sub048</t>
+          <t>sub025</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>20170405000354</t>
+          <t>20171229000852</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>62.96527777777778</v>
+        <v>67.47</v>
       </c>
       <c r="D229" t="n">
-        <v>43374</v>
+        <v>27520</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>sub009</t>
+          <t>sub033</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>20161103001054</t>
+          <t>20170118000324</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>65.49055555555556</v>
+        <v>68.19611111111111</v>
       </c>
       <c r="D230" t="n">
-        <v>48539</v>
+        <v>22570</v>
       </c>
     </row>
     <row r="231">
@@ -4589,7 +4589,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>66.22194444444445</v>
+        <v>69.22194444444445</v>
       </c>
       <c r="D231" t="n">
         <v>28415</v>
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>69.6125</v>
+        <v>71.6125</v>
       </c>
       <c r="D232" t="n">
         <v>20788</v>
@@ -4625,7 +4625,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>71.36972222222222</v>
+        <v>71.86972222222222</v>
       </c>
       <c r="D233" t="n">
         <v>69798</v>
@@ -4643,7 +4643,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>75.0325</v>
+        <v>76.0325</v>
       </c>
       <c r="D234" t="n">
         <v>44172</v>
@@ -4661,7 +4661,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>76.77222222222223</v>
+        <v>78.77222222222223</v>
       </c>
       <c r="D235" t="n">
         <v>38232</v>
@@ -4679,7 +4679,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>82.84527777777778</v>
+        <v>83.84527777777778</v>
       </c>
       <c r="D236" t="n">
         <v>9540</v>
@@ -4688,37 +4688,37 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>sub075</t>
+          <t>sub084</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>20180502000264</t>
+          <t>20180719000621</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>83.40305555555555</v>
+        <v>85.41249999999999</v>
       </c>
       <c r="D237" t="n">
-        <v>42038</v>
+        <v>30080</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>sub084</t>
+          <t>sub075</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>20180719000621</t>
+          <t>20180502000264</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>83.91249999999999</v>
+        <v>86.40305555555555</v>
       </c>
       <c r="D238" t="n">
-        <v>30080</v>
+        <v>42038</v>
       </c>
     </row>
     <row r="239">
@@ -4733,7 +4733,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>84.78194444444445</v>
+        <v>87.78194444444445</v>
       </c>
       <c r="D239" t="n">
         <v>4992</v>
@@ -4751,7 +4751,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>86.98027777777777</v>
+        <v>87.98027777777777</v>
       </c>
       <c r="D240" t="n">
         <v>9911</v>
@@ -4760,73 +4760,73 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>sub005</t>
+          <t>sub095</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>20161226000628</t>
+          <t>20180320000636</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>92.94305555555556</v>
+        <v>94.1425</v>
       </c>
       <c r="D241" t="n">
-        <v>12898</v>
+        <v>99131</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>sub095</t>
+          <t>sub021</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>20180320000636</t>
+          <t>20160321000364</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>93.1425</v>
+        <v>94.98333333333333</v>
       </c>
       <c r="D242" t="n">
-        <v>99131</v>
+        <v>18694</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>sub021</t>
+          <t>sub034</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>20160321000364</t>
+          <t>20170123000360</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>93.98333333333333</v>
+        <v>95.57194444444444</v>
       </c>
       <c r="D243" t="n">
-        <v>18694</v>
+        <v>79391</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>sub034</t>
+          <t>sub060</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>20170123000360</t>
+          <t>20180113000175</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>95.07194444444444</v>
+        <v>96.29000000000001</v>
       </c>
       <c r="D244" t="n">
-        <v>79391</v>
+        <v>39878</v>
       </c>
     </row>
     <row r="245">
@@ -4841,7 +4841,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>95.09722222222223</v>
+        <v>97.09722222222223</v>
       </c>
       <c r="D245" t="n">
         <v>18251</v>
@@ -4850,109 +4850,109 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>sub060</t>
+          <t>sub005</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>20180113000175</t>
+          <t>20161226000628</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>95.79000000000001</v>
+        <v>97.94305555555556</v>
       </c>
       <c r="D246" t="n">
-        <v>39878</v>
+        <v>12898</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>sub094</t>
+          <t>sub008</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>20180416000712</t>
+          <t>20161223000077</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>95.85166666666667</v>
+        <v>98.24583333333334</v>
       </c>
       <c r="D247" t="n">
-        <v>18164</v>
+        <v>51887</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>sub008</t>
+          <t>sub056</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>20161223000077</t>
+          <t>20170124000284</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>96.24583333333334</v>
+        <v>98.765</v>
       </c>
       <c r="D248" t="n">
-        <v>51887</v>
+        <v>21854</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>sub056</t>
+          <t>sub094</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>20170124000284</t>
+          <t>20180416000712</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>97.265</v>
+        <v>100.8516666666667</v>
       </c>
       <c r="D249" t="n">
-        <v>21854</v>
+        <v>18164</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>sub006</t>
+          <t>sub074</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>20161114001225</t>
+          <t>20180723000286</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>97.63166666666666</v>
+        <v>107.1522222222222</v>
       </c>
       <c r="D250" t="n">
-        <v>81745</v>
+        <v>77423</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>sub007</t>
+          <t>sub035</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>20161212001052</t>
+          <t>20171019000835</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>99.12472222222222</v>
+        <v>110.7916666666667</v>
       </c>
       <c r="D251" t="n">
-        <v>31287</v>
+        <v>22328</v>
       </c>
     </row>
     <row r="252">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>103.1002777777778</v>
+        <v>113.1002777777778</v>
       </c>
       <c r="D252" t="n">
         <v>29340</v>
@@ -4976,289 +4976,289 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>sub074</t>
+          <t>sub085</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>20180723000286</t>
+          <t>20181202000481</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>105.6522222222222</v>
+        <v>115.7952777777778</v>
       </c>
       <c r="D253" t="n">
-        <v>77423</v>
+        <v>53073</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>sub035</t>
+          <t>sub077</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>20171019000835</t>
+          <t>20180508001300</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>107.7916666666667</v>
+        <v>117.0416666666667</v>
       </c>
       <c r="D254" t="n">
-        <v>22328</v>
+        <v>27787</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>sub085</t>
+          <t>sub007</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>20181202000481</t>
+          <t>20161212001052</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>114.7952777777778</v>
+        <v>117.1247222222222</v>
       </c>
       <c r="D255" t="n">
-        <v>53073</v>
+        <v>31287</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>sub077</t>
+          <t>sub065</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>20180508001300</t>
+          <t>20180205001614</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>115.0416666666667</v>
+        <v>118.8919444444444</v>
       </c>
       <c r="D256" t="n">
-        <v>27787</v>
+        <v>47084</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>sub066</t>
+          <t>sub060</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>20181213000923</t>
+          <t>20180114000027</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>115.0955555555555</v>
+        <v>118.8961111111111</v>
       </c>
       <c r="D257" t="n">
-        <v>25422</v>
+        <v>37116</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>sub049</t>
+          <t>sub041</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>20171010001203</t>
+          <t>20171007000657</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>115.4205555555556</v>
+        <v>119.77</v>
       </c>
       <c r="D258" t="n">
-        <v>2946</v>
+        <v>19447</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>sub033</t>
+          <t>sub006</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>20170120001205</t>
+          <t>20161114001225</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>116.6144444444444</v>
+        <v>121.6316666666667</v>
       </c>
       <c r="D259" t="n">
-        <v>20385</v>
+        <v>81745</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>sub065</t>
+          <t>sub033</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>20180205001614</t>
+          <t>20170120001205</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>116.8919444444444</v>
+        <v>122.6144444444444</v>
       </c>
       <c r="D260" t="n">
-        <v>47084</v>
+        <v>20385</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>sub083</t>
+          <t>sub066</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>20181009001665</t>
+          <t>20181213000923</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>116.9852777777778</v>
+        <v>123.0955555555555</v>
       </c>
       <c r="D261" t="n">
-        <v>47580</v>
+        <v>25422</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>sub060</t>
+          <t>sub049</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>20180114000027</t>
+          <t>20171010001203</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>118.3961111111111</v>
+        <v>125.4205555555556</v>
       </c>
       <c r="D262" t="n">
-        <v>37116</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>sub041</t>
+          <t>sub083</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>20171007000657</t>
+          <t>20181009001665</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>118.77</v>
+        <v>126.9852777777778</v>
       </c>
       <c r="D263" t="n">
-        <v>19447</v>
+        <v>47580</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>sub030</t>
+          <t>sub016</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>20171030001198</t>
+          <t>20161205000540</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>121.9491666666667</v>
+        <v>127.3522222222222</v>
       </c>
       <c r="D264" t="n">
-        <v>104295</v>
+        <v>94642</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>sub067</t>
+          <t>sub060</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>20181212001550</t>
+          <t>20180114000432</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>123.5386111111111</v>
+        <v>127.4338888888889</v>
       </c>
       <c r="D265" t="n">
-        <v>11560</v>
+        <v>39921</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>sub081</t>
+          <t>sub067</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>20180125001320</t>
+          <t>20181212001550</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>126.0102777777778</v>
+        <v>127.5386111111111</v>
       </c>
       <c r="D266" t="n">
-        <v>15033</v>
+        <v>11560</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>sub016</t>
+          <t>sub081</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>20161205000540</t>
+          <t>20180125001320</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>126.3522222222222</v>
+        <v>129.0102777777778</v>
       </c>
       <c r="D267" t="n">
-        <v>94642</v>
+        <v>15033</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>sub060</t>
+          <t>sub030</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>20180114000432</t>
+          <t>20171030001198</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>126.9338888888889</v>
+        <v>129.9491666666667</v>
       </c>
       <c r="D268" t="n">
-        <v>39921</v>
+        <v>104295</v>
       </c>
     </row>
     <row r="269">
@@ -5273,7 +5273,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>129.6083333333333</v>
+        <v>132.1083333333333</v>
       </c>
       <c r="D269" t="n">
         <v>81747</v>
@@ -5282,109 +5282,109 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>sub039</t>
+          <t>sub038</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>20170501000115</t>
+          <t>20170524000796</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>134.2672222222222</v>
+        <v>135.5808333333333</v>
       </c>
       <c r="D270" t="n">
-        <v>63043</v>
+        <v>30637</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>sub038</t>
+          <t>sub039</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>20170524000796</t>
+          <t>20170501000115</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>134.5808333333333</v>
+        <v>136.2672222222222</v>
       </c>
       <c r="D271" t="n">
-        <v>30637</v>
+        <v>63043</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>sub063</t>
+          <t>sub055</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>20181026000892</t>
+          <t>20170322001359</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>138.2822222222222</v>
+        <v>139.7461111111111</v>
       </c>
       <c r="D272" t="n">
-        <v>54349</v>
+        <v>47195</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>sub055</t>
+          <t>sub028</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>20170322001359</t>
+          <t>20171019001353</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>138.7461111111111</v>
+        <v>142.9261111111111</v>
       </c>
       <c r="D273" t="n">
-        <v>47195</v>
+        <v>45445</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>sub028</t>
+          <t>sub091</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>20171019001353</t>
+          <t>20181025000261</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>140.9261111111111</v>
+        <v>145.0480555555555</v>
       </c>
       <c r="D274" t="n">
-        <v>45445</v>
+        <v>11741</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>sub091</t>
+          <t>sub056</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>20181025000261</t>
+          <t>20170126000117</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>142.0480555555555</v>
+        <v>146.0188888888889</v>
       </c>
       <c r="D275" t="n">
-        <v>11741</v>
+        <v>25712</v>
       </c>
     </row>
     <row r="276">
@@ -5399,7 +5399,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>144.2388888888889</v>
+        <v>146.2388888888889</v>
       </c>
       <c r="D276" t="n">
         <v>7129</v>
@@ -5408,109 +5408,109 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>sub056</t>
+          <t>sub046</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>20170126000117</t>
+          <t>20170517000262</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>144.5188888888889</v>
+        <v>147.6219444444444</v>
       </c>
       <c r="D277" t="n">
-        <v>25712</v>
+        <v>50652</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>sub068</t>
+          <t>sub063</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>20180418001436</t>
+          <t>20181026000892</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>146.5513888888889</v>
+        <v>148.2822222222222</v>
       </c>
       <c r="D278" t="n">
-        <v>50903</v>
+        <v>54349</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>sub046</t>
+          <t>sub068</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>20170517000262</t>
+          <t>20180418001436</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>146.6219444444444</v>
+        <v>148.5513888888889</v>
       </c>
       <c r="D279" t="n">
-        <v>50652</v>
+        <v>50903</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>sub006</t>
+          <t>sub037</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>20161116001258</t>
+          <t>20170502000740</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>148.1880555555556</v>
+        <v>155.6941666666667</v>
       </c>
       <c r="D280" t="n">
-        <v>50859</v>
+        <v>66059</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>sub037</t>
+          <t>sub090</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>20170502000740</t>
+          <t>20180917000349</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>153.6941666666667</v>
+        <v>158.2252777777778</v>
       </c>
       <c r="D281" t="n">
-        <v>66059</v>
+        <v>16378</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>sub090</t>
+          <t>sub077</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>20180917000349</t>
+          <t>20180510001999</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>156.2252777777778</v>
+        <v>165.7169444444444</v>
       </c>
       <c r="D282" t="n">
-        <v>16378</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="283">
@@ -5525,7 +5525,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>163.3730555555556</v>
+        <v>168.3730555555556</v>
       </c>
       <c r="D283" t="n">
         <v>17205</v>
@@ -5534,163 +5534,163 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>sub077</t>
+          <t>sub097</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>20180510001999</t>
+          <t>20181017000365</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>163.7169444444444</v>
+        <v>171.4002777777778</v>
       </c>
       <c r="D284" t="n">
-        <v>45271</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>sub097</t>
+          <t>sub032</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>20181017000365</t>
+          <t>20171016000988</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>168.4002777777778</v>
+        <v>171.8727777777778</v>
       </c>
       <c r="D285" t="n">
-        <v>1316</v>
+        <v>440</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>sub043</t>
+          <t>sub006</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>20170401000528</t>
+          <t>20161116001258</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>169.6077777777778</v>
+        <v>172.1880555555556</v>
       </c>
       <c r="D286" t="n">
-        <v>21325</v>
+        <v>50859</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>sub032</t>
+          <t>sub012</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>20171016000988</t>
+          <t>20161107001486</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>170.3727777777778</v>
+        <v>172.8547222222222</v>
       </c>
       <c r="D287" t="n">
-        <v>440</v>
+        <v>22086</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>sub012</t>
+          <t>sub008</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>20161107001486</t>
+          <t>20161226000656</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>170.8547222222222</v>
+        <v>173.5252777777778</v>
       </c>
       <c r="D288" t="n">
-        <v>22086</v>
+        <v>34914</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>sub008</t>
+          <t>sub092</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>20161226000656</t>
+          <t>20181123000847</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>171.5252777777778</v>
+        <v>173.5741666666667</v>
       </c>
       <c r="D289" t="n">
-        <v>34914</v>
+        <v>52388</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>sub092</t>
+          <t>sub027</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>20181123000847</t>
+          <t>20170213001624</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>171.5741666666667</v>
+        <v>177.6952777777778</v>
       </c>
       <c r="D290" t="n">
-        <v>52388</v>
+        <v>23846</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>sub007</t>
+          <t>sub043</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>20161215001175</t>
+          <t>20170401000528</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>174.6947222222222</v>
+        <v>178.6077777777778</v>
       </c>
       <c r="D291" t="n">
-        <v>42807</v>
+        <v>21325</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>sub027</t>
+          <t>sub074</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>20170213001624</t>
+          <t>20180726001417</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>174.6952777777778</v>
+        <v>179.1594444444444</v>
       </c>
       <c r="D292" t="n">
-        <v>23846</v>
+        <v>94712</v>
       </c>
     </row>
     <row r="293">
@@ -5705,7 +5705,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>176.3880555555556</v>
+        <v>179.3880555555556</v>
       </c>
       <c r="D293" t="n">
         <v>6076</v>
@@ -5714,181 +5714,181 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>sub074</t>
+          <t>sub062</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>20180726001417</t>
+          <t>20181229000079</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>177.6594444444444</v>
+        <v>180.7511111111111</v>
       </c>
       <c r="D294" t="n">
-        <v>94712</v>
+        <v>21970</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>sub062</t>
+          <t>sub084</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>20181229000079</t>
+          <t>20180723000278</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>177.7511111111111</v>
+        <v>181.2836111111111</v>
       </c>
       <c r="D295" t="n">
-        <v>21970</v>
+        <v>39377</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>sub084</t>
+          <t>sub017</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>20180723000278</t>
+          <t>20160518000623</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>179.7836111111111</v>
+        <v>181.8058333333333</v>
       </c>
       <c r="D296" t="n">
-        <v>39377</v>
+        <v>44436</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>sub017</t>
+          <t>sub072</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>20160518000623</t>
+          <t>20181015000771</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>179.8058333333333</v>
+        <v>186.2469444444444</v>
       </c>
       <c r="D297" t="n">
-        <v>44436</v>
+        <v>16510</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>sub072</t>
+          <t>sub098</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>20181015000771</t>
+          <t>20180620002065</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>184.2469444444444</v>
+        <v>187.6569444444444</v>
       </c>
       <c r="D298" t="n">
-        <v>16510</v>
+        <v>26426</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>sub098</t>
+          <t>sub054</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>20180620002065</t>
+          <t>20170620001366</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>185.1569444444444</v>
+        <v>188.5644444444444</v>
       </c>
       <c r="D299" t="n">
-        <v>26426</v>
+        <v>24644</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>sub054</t>
+          <t>sub082</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>20170620001366</t>
+          <t>20180301001378</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>187.5644444444444</v>
+        <v>190.5866666666667</v>
       </c>
       <c r="D300" t="n">
-        <v>24644</v>
+        <v>30438</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>sub082</t>
+          <t>sub061</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>20180301001378</t>
+          <t>20180306000254</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>189.5866666666667</v>
+        <v>191.8686111111111</v>
       </c>
       <c r="D301" t="n">
-        <v>30438</v>
+        <v>89272</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>sub013</t>
+          <t>sub007</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>20161202000262</t>
+          <t>20161215001175</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>191.3133333333333</v>
+        <v>192.6947222222222</v>
       </c>
       <c r="D302" t="n">
-        <v>15231</v>
+        <v>42807</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>sub061</t>
+          <t>sub013</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>20180306000254</t>
+          <t>20161202000262</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>191.3686111111111</v>
+        <v>194.3133333333333</v>
       </c>
       <c r="D303" t="n">
-        <v>89272</v>
+        <v>15231</v>
       </c>
     </row>
     <row r="304">
@@ -5903,7 +5903,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>194.1672222222222</v>
+        <v>196.1672222222222</v>
       </c>
       <c r="D304" t="n">
         <v>30013</v>
@@ -5912,19 +5912,19 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>sub044</t>
+          <t>sub100</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>20170605000487</t>
+          <t>20180322000363</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>194.8213888888889</v>
+        <v>197.2366666666667</v>
       </c>
       <c r="D305" t="n">
-        <v>81670</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="306">
@@ -5939,7 +5939,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>195.3211111111111</v>
+        <v>200.3211111111111</v>
       </c>
       <c r="D306" t="n">
         <v>2378</v>
@@ -5948,19 +5948,19 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>sub100</t>
+          <t>sub044</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>20180322000363</t>
+          <t>20170605000487</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>196.7366666666667</v>
+        <v>200.8213888888889</v>
       </c>
       <c r="D307" t="n">
-        <v>3191</v>
+        <v>81670</v>
       </c>
     </row>
     <row r="308">
@@ -5975,7 +5975,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>203.0927777777778</v>
+        <v>204.0927777777778</v>
       </c>
       <c r="D308" t="n">
         <v>39826</v>
@@ -5993,7 +5993,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>205.2483333333333</v>
+        <v>206.7483333333333</v>
       </c>
       <c r="D309" t="n">
         <v>14763</v>
@@ -6002,19 +6002,19 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>sub075</t>
+          <t>sub085</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>20180507001340</t>
+          <t>20181206001312</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>205.6025</v>
+        <v>207.3308333333333</v>
       </c>
       <c r="D310" t="n">
-        <v>34310</v>
+        <v>18619</v>
       </c>
     </row>
     <row r="311">
@@ -6029,7 +6029,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>206.1802777777778</v>
+        <v>208.1802777777778</v>
       </c>
       <c r="D311" t="n">
         <v>66089</v>
@@ -6038,19 +6038,19 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>sub085</t>
+          <t>sub075</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>20181206001312</t>
+          <t>20180507001340</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>206.3308333333333</v>
+        <v>208.6025</v>
       </c>
       <c r="D312" t="n">
-        <v>18619</v>
+        <v>34310</v>
       </c>
     </row>
     <row r="313">
@@ -6065,7 +6065,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>210.3977777777778</v>
+        <v>211.3977777777778</v>
       </c>
       <c r="D313" t="n">
         <v>10274</v>
@@ -6083,7 +6083,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>217.6905555555556</v>
+        <v>218.6905555555556</v>
       </c>
       <c r="D314" t="n">
         <v>9754</v>
@@ -6101,7 +6101,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>219.0322222222222</v>
+        <v>221.0322222222222</v>
       </c>
       <c r="D315" t="n">
         <v>41808</v>
@@ -6119,7 +6119,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>226.5011111111111</v>
+        <v>227.5011111111111</v>
       </c>
       <c r="D316" t="n">
         <v>5204</v>
@@ -6137,7 +6137,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>226.6030555555556</v>
+        <v>229.6030555555556</v>
       </c>
       <c r="D317" t="n">
         <v>26813</v>
@@ -6155,7 +6155,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>228.095</v>
+        <v>230.095</v>
       </c>
       <c r="D318" t="n">
         <v>4787</v>
@@ -6173,7 +6173,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>230.7236111111111</v>
+        <v>231.7236111111111</v>
       </c>
       <c r="D319" t="n">
         <v>69692</v>
@@ -6191,7 +6191,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>235.5480555555555</v>
+        <v>236.0480555555555</v>
       </c>
       <c r="D320" t="n">
         <v>64084</v>
@@ -6209,7 +6209,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>237.1075</v>
+        <v>238.1075</v>
       </c>
       <c r="D321" t="n">
         <v>1488</v>
@@ -6227,7 +6227,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>238.2030555555556</v>
+        <v>239.2030555555556</v>
       </c>
       <c r="D322" t="n">
         <v>31092</v>
@@ -6236,55 +6236,55 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>sub066</t>
+          <t>sub060</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>20181218001588</t>
+          <t>20180119000413</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>239.1608333333333</v>
+        <v>240.1108333333333</v>
       </c>
       <c r="D323" t="n">
-        <v>11795</v>
+        <v>33087</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>sub060</t>
+          <t>sub056</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>20180119000413</t>
+          <t>20170130000128</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>239.6108333333333</v>
+        <v>242.7808333333333</v>
       </c>
       <c r="D324" t="n">
-        <v>33087</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>sub056</t>
+          <t>sub066</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>20170130000128</t>
+          <t>20181218001588</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>241.2808333333333</v>
+        <v>247.1608333333333</v>
       </c>
       <c r="D325" t="n">
-        <v>3504</v>
+        <v>11795</v>
       </c>
     </row>
     <row r="326">
@@ -6299,7 +6299,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>247.0391666666667</v>
+        <v>250.0391666666667</v>
       </c>
       <c r="D326" t="n">
         <v>18389</v>
@@ -6317,7 +6317,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>251.6158333333333</v>
+        <v>254.6158333333333</v>
       </c>
       <c r="D327" t="n">
         <v>12735</v>
@@ -6335,7 +6335,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>254.1191666666667</v>
+        <v>255.1191666666667</v>
       </c>
       <c r="D328" t="n">
         <v>11687</v>
@@ -6353,7 +6353,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>254.9919444444444</v>
+        <v>256.9919444444445</v>
       </c>
       <c r="D329" t="n">
         <v>70518</v>
@@ -6362,433 +6362,433 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>sub049</t>
+          <t>sub001</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>20171016000446</t>
+          <t>20161223001020</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>256.9444444444445</v>
+        <v>259.7375</v>
       </c>
       <c r="D330" t="n">
-        <v>189</v>
+        <v>107793</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>sub001</t>
+          <t>sub094</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>20161223001020</t>
+          <t>20180423000704</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>257.2375</v>
+        <v>263.7955555555556</v>
       </c>
       <c r="D331" t="n">
-        <v>107793</v>
+        <v>8693</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>sub094</t>
+          <t>sub053</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>20180423000704</t>
+          <t>20170522001412</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>258.7955555555556</v>
+        <v>265.4177777777778</v>
       </c>
       <c r="D332" t="n">
-        <v>8693</v>
+        <v>52101</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>sub063</t>
+          <t>sub049</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>20181031001545</t>
+          <t>20171016000446</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>261.5861111111111</v>
+        <v>266.9444444444445</v>
       </c>
       <c r="D333" t="n">
-        <v>61937</v>
+        <v>189</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>sub006</t>
+          <t>sub093</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>20161121000269</t>
+          <t>20181225000587</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>261.6477777777778</v>
+        <v>271.1716666666667</v>
       </c>
       <c r="D334" t="n">
-        <v>24730</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>sub053</t>
+          <t>sub063</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>20170522001412</t>
+          <t>20181031001545</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>263.4177777777778</v>
+        <v>271.5861111111111</v>
       </c>
       <c r="D335" t="n">
-        <v>52101</v>
+        <v>61937</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>sub007</t>
+          <t>sub080</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>20161219000578</t>
+          <t>20180211000133</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>265.4372222222222</v>
+        <v>276.3805555555555</v>
       </c>
       <c r="D336" t="n">
-        <v>56867</v>
+        <v>5810</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>sub093</t>
+          <t>sub045</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>20181225000587</t>
+          <t>20170405000358</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>270.6716666666667</v>
+        <v>278.1280555555555</v>
       </c>
       <c r="D337" t="n">
-        <v>3258</v>
+        <v>38180</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>sub080</t>
+          <t>sub087</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>20180211000133</t>
+          <t>20180228000613</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>272.3805555555555</v>
+        <v>280.4483333333333</v>
       </c>
       <c r="D338" t="n">
-        <v>5810</v>
+        <v>4054</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>sub045</t>
+          <t>sub007</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>20170405000358</t>
+          <t>20161219000578</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>276.1280555555555</v>
+        <v>283.4372222222222</v>
       </c>
       <c r="D339" t="n">
-        <v>38180</v>
+        <v>56867</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>sub087</t>
+          <t>sub089</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>20180228000613</t>
+          <t>20180326001366</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>278.9483333333333</v>
+        <v>283.8741666666667</v>
       </c>
       <c r="D340" t="n">
-        <v>4054</v>
+        <v>67976</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>sub050</t>
+          <t>sub039</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>20171117000485</t>
+          <t>20170507000411</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>281.8175</v>
+        <v>285.0119444444445</v>
       </c>
       <c r="D341" t="n">
-        <v>20041</v>
+        <v>127535</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>sub089</t>
+          <t>sub006</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>20180326001366</t>
+          <t>20161121000269</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>282.3741666666667</v>
+        <v>285.6477777777778</v>
       </c>
       <c r="D342" t="n">
-        <v>67976</v>
+        <v>24730</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>sub039</t>
+          <t>sub052</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>20170507000411</t>
+          <t>20170620000788</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>283.0119444444445</v>
+        <v>289.1236111111111</v>
       </c>
       <c r="D343" t="n">
-        <v>127535</v>
+        <v>79961</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>sub052</t>
+          <t>sub056</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>20170620000788</t>
+          <t>20170201000094</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>285.1236111111111</v>
+        <v>289.9736111111111</v>
       </c>
       <c r="D344" t="n">
-        <v>79961</v>
+        <v>656</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>sub019</t>
+          <t>sub050</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>20160129000231</t>
+          <t>20171117000485</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>287.9011111111111</v>
+        <v>291.3175</v>
       </c>
       <c r="D345" t="n">
-        <v>27745</v>
+        <v>20041</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>sub056</t>
+          <t>sub060</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>20170201000094</t>
+          <t>20180121000401</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>288.4736111111111</v>
+        <v>294.4077777777778</v>
       </c>
       <c r="D346" t="n">
-        <v>656</v>
+        <v>22092</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>sub030</t>
+          <t>sub019</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>20171106001126</t>
+          <t>20160129000231</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>289.9586111111111</v>
+        <v>296.9011111111111</v>
       </c>
       <c r="D347" t="n">
-        <v>79204</v>
+        <v>27745</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>sub007</t>
+          <t>sub024</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>20161220000982</t>
+          <t>20170814001483</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>291.03</v>
+        <v>297.2280555555556</v>
       </c>
       <c r="D348" t="n">
-        <v>51531</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>sub024</t>
+          <t>sub070</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>20170814001483</t>
+          <t>20180509001456</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>292.2280555555556</v>
+        <v>297.9577777777778</v>
       </c>
       <c r="D349" t="n">
-        <v>1124</v>
+        <v>15157</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>sub060</t>
+          <t>sub030</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>20180121000401</t>
+          <t>20171106001126</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>293.9077777777778</v>
+        <v>297.9586111111111</v>
       </c>
       <c r="D350" t="n">
-        <v>22092</v>
+        <v>79204</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>sub070</t>
+          <t>sub038</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>20180509001456</t>
+          <t>20170531000513</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>294.9577777777778</v>
+        <v>303.4952777777778</v>
       </c>
       <c r="D351" t="n">
-        <v>15157</v>
+        <v>33686</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>sub038</t>
+          <t>sub057</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>20170531000513</t>
+          <t>20170907001484</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>302.4952777777778</v>
+        <v>307.3047222222222</v>
       </c>
       <c r="D352" t="n">
-        <v>33686</v>
+        <v>9374</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>sub057</t>
+          <t>sub007</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>20170907001484</t>
+          <t>20161220000982</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>307.0547222222222</v>
+        <v>309.03</v>
       </c>
       <c r="D353" t="n">
-        <v>9374</v>
+        <v>51531</v>
       </c>
     </row>
     <row r="354">
@@ -6803,7 +6803,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>309.7530555555555</v>
+        <v>310.7530555555555</v>
       </c>
       <c r="D354" t="n">
         <v>168138</v>
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>311.0288888888889</v>
+        <v>312.0288888888889</v>
       </c>
       <c r="D355" t="n">
         <v>1736</v>
@@ -6839,7 +6839,7 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>312.5380555555556</v>
+        <v>314.5380555555556</v>
       </c>
       <c r="D356" t="n">
         <v>3744</v>
@@ -6857,7 +6857,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>315.7647222222222</v>
+        <v>316.7647222222222</v>
       </c>
       <c r="D357" t="n">
         <v>19750</v>
@@ -6875,7 +6875,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>316.9297222222222</v>
+        <v>319.9297222222222</v>
       </c>
       <c r="D358" t="n">
         <v>8175</v>
@@ -6893,7 +6893,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>320.5763888888889</v>
+        <v>321.5763888888889</v>
       </c>
       <c r="D359" t="n">
         <v>1794</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>330.2472222222222</v>
+        <v>331.2472222222222</v>
       </c>
       <c r="D360" t="n">
         <v>15428</v>
@@ -6920,55 +6920,55 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>sub015</t>
+          <t>sub011</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>20161027000401</t>
+          <t>20160223000314</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>330.4619444444444</v>
+        <v>332.5755555555556</v>
       </c>
       <c r="D361" t="n">
-        <v>96502</v>
+        <v>13</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>sub011</t>
+          <t>sub022</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>20160223000314</t>
+          <t>20160817000680</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>331.5755555555556</v>
+        <v>333.5725</v>
       </c>
       <c r="D362" t="n">
-        <v>13</v>
+        <v>8820</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>sub022</t>
+          <t>sub015</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>20160817000680</t>
+          <t>20161027000401</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>332.5725</v>
+        <v>335.4619444444444</v>
       </c>
       <c r="D363" t="n">
-        <v>8820</v>
+        <v>96502</v>
       </c>
     </row>
     <row r="364">
@@ -6983,7 +6983,7 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>337.505</v>
+        <v>339.505</v>
       </c>
       <c r="D364" t="n">
         <v>20900</v>
@@ -6992,19 +6992,19 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>sub029</t>
+          <t>sub040</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>20170621000806</t>
+          <t>20170917000245</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>341.2419444444445</v>
+        <v>347.6175</v>
       </c>
       <c r="D365" t="n">
-        <v>43817</v>
+        <v>97468</v>
       </c>
     </row>
     <row r="366">
@@ -7019,7 +7019,7 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>345.2975</v>
+        <v>348.2975</v>
       </c>
       <c r="D366" t="n">
         <v>2490</v>
@@ -7028,19 +7028,19 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>sub040</t>
+          <t>sub029</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>20170917000245</t>
+          <t>20170621000806</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>346.6175</v>
+        <v>349.2419444444445</v>
       </c>
       <c r="D367" t="n">
-        <v>97468</v>
+        <v>43817</v>
       </c>
     </row>
     <row r="368">
@@ -7055,7 +7055,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>359.4569444444444</v>
+        <v>359.9569444444444</v>
       </c>
       <c r="D368" t="n">
         <v>77707</v>
@@ -7073,7 +7073,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>361.7611111111111</v>
+        <v>363.7611111111111</v>
       </c>
       <c r="D369" t="n">
         <v>40009</v>
@@ -7091,7 +7091,7 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>372.8922222222222</v>
+        <v>375.8922222222222</v>
       </c>
       <c r="D370" t="n">
         <v>19245</v>
@@ -7109,7 +7109,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>374.6197222222222</v>
+        <v>379.6197222222222</v>
       </c>
       <c r="D371" t="n">
         <v>13138</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>381.0286111111111</v>
+        <v>382.5286111111111</v>
       </c>
       <c r="D372" t="n">
         <v>7061</v>
@@ -7145,7 +7145,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>383.1105555555555</v>
+        <v>383.6105555555555</v>
       </c>
       <c r="D373" t="n">
         <v>115006</v>
@@ -7154,109 +7154,109 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>sub007</t>
+          <t>sub045</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>20161224000862</t>
+          <t>20170410000439</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>391.5091666666667</v>
+        <v>397.6236111111111</v>
       </c>
       <c r="D374" t="n">
-        <v>43794</v>
+        <v>34625</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>sub045</t>
+          <t>sub035</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>20170410000439</t>
+          <t>20171031000913</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>395.6236111111111</v>
+        <v>398.8825</v>
       </c>
       <c r="D375" t="n">
-        <v>34625</v>
+        <v>14406</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>sub035</t>
+          <t>sub054</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>20171031000913</t>
+          <t>20170629000849</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>395.8825</v>
+        <v>400.77</v>
       </c>
       <c r="D376" t="n">
-        <v>14406</v>
+        <v>26006</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>sub054</t>
+          <t>sub028</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>20170629000849</t>
+          <t>20171030001623</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>399.77</v>
+        <v>407.0802777777778</v>
       </c>
       <c r="D377" t="n">
-        <v>26006</v>
+        <v>82603</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>sub028</t>
+          <t>sub060</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>20171030001623</t>
+          <t>20180126000567</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>405.0802777777778</v>
+        <v>409.0105555555556</v>
       </c>
       <c r="D378" t="n">
-        <v>82603</v>
+        <v>20720</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>sub060</t>
+          <t>sub007</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>20180126000567</t>
+          <t>20161224000862</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>408.5105555555556</v>
+        <v>409.5091666666667</v>
       </c>
       <c r="D379" t="n">
-        <v>20720</v>
+        <v>43794</v>
       </c>
     </row>
     <row r="380">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>422.5011111111111</v>
+        <v>423.5011111111111</v>
       </c>
       <c r="D380" t="n">
         <v>231</v>
@@ -7289,7 +7289,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>423.0383333333334</v>
+        <v>425.5383333333334</v>
       </c>
       <c r="D381" t="n">
         <v>126558</v>
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>424.0733333333333</v>
+        <v>434.0733333333333</v>
       </c>
       <c r="D382" t="n">
         <v>49420</v>
@@ -7325,7 +7325,7 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>434.7844444444444</v>
+        <v>436.7844444444444</v>
       </c>
       <c r="D383" t="n">
         <v>56544</v>
@@ -7343,7 +7343,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>445.0163888888889</v>
+        <v>448.0163888888889</v>
       </c>
       <c r="D384" t="n">
         <v>34868</v>
@@ -7352,109 +7352,109 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>sub033</t>
+          <t>sub087</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>20170203000453</t>
+          <t>20180307000794</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>446.5430555555556</v>
+        <v>448.2697222222222</v>
       </c>
       <c r="D385" t="n">
-        <v>2503</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>sub087</t>
+          <t>sub033</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>20180307000794</t>
+          <t>20170203000453</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>446.7697222222222</v>
+        <v>452.5430555555556</v>
       </c>
       <c r="D386" t="n">
-        <v>4603</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>sub024</t>
+          <t>sub056</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>20170821000373</t>
+          <t>20170208000198</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>455.3138888888889</v>
+        <v>457.6175</v>
       </c>
       <c r="D387" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>sub056</t>
+          <t>sub026</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>20170208000198</t>
+          <t>20171027001453</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>456.1175</v>
+        <v>459.2155555555556</v>
       </c>
       <c r="D388" t="n">
-        <v>75</v>
+        <v>57285</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>sub030</t>
+          <t>sub024</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>20171113000950</t>
+          <t>20170821000373</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>457.2502777777778</v>
+        <v>460.3138888888889</v>
       </c>
       <c r="D389" t="n">
-        <v>94574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>sub026</t>
+          <t>sub030</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>20171027001453</t>
+          <t>20171113000950</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>458.2155555555556</v>
+        <v>465.2502777777778</v>
       </c>
       <c r="D390" t="n">
-        <v>57285</v>
+        <v>94574</v>
       </c>
     </row>
     <row r="391">
@@ -7469,7 +7469,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>471.1277777777778</v>
+        <v>473.1277777777778</v>
       </c>
       <c r="D391" t="n">
         <v>115761</v>
@@ -7487,7 +7487,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>473.7072222222222</v>
+        <v>475.7072222222222</v>
       </c>
       <c r="D392" t="n">
         <v>34853</v>
@@ -7496,37 +7496,37 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>sub091</t>
+          <t>sub012</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>20181108000235</t>
+          <t>20161120000252</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>478.4161111111111</v>
+        <v>481.2769444444444</v>
       </c>
       <c r="D393" t="n">
-        <v>10975</v>
+        <v>55714</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>sub012</t>
+          <t>sub091</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>20161120000252</t>
+          <t>20181108000235</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>479.2769444444444</v>
+        <v>481.4161111111111</v>
       </c>
       <c r="D394" t="n">
-        <v>55714</v>
+        <v>10975</v>
       </c>
     </row>
     <row r="395">
@@ -7541,7 +7541,7 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>483.9330555555555</v>
+        <v>484.9330555555555</v>
       </c>
       <c r="D395" t="n">
         <v>40598</v>
@@ -7559,7 +7559,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>504.9652777777778</v>
+        <v>506.9652777777778</v>
       </c>
       <c r="D396" t="n">
         <v>30197</v>
@@ -7577,7 +7577,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>510.4577777777778</v>
+        <v>513.4577777777778</v>
       </c>
       <c r="D397" t="n">
         <v>7072</v>
@@ -7595,7 +7595,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>519.4319444444444</v>
+        <v>520.4319444444444</v>
       </c>
       <c r="D398" t="n">
         <v>28862</v>
@@ -7613,7 +7613,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>522.9272222222222</v>
+        <v>524.9272222222222</v>
       </c>
       <c r="D399" t="n">
         <v>11519</v>
@@ -7631,7 +7631,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>526.0230555555555</v>
+        <v>528.0230555555555</v>
       </c>
       <c r="D400" t="n">
         <v>50230</v>
@@ -7649,7 +7649,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>526.2672222222222</v>
+        <v>528.2672222222222</v>
       </c>
       <c r="D401" t="n">
         <v>55916</v>
@@ -7667,7 +7667,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>530.0380555555555</v>
+        <v>536.0380555555555</v>
       </c>
       <c r="D402" t="n">
         <v>58161</v>
@@ -7685,7 +7685,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>537.8319444444444</v>
+        <v>539.8319444444444</v>
       </c>
       <c r="D403" t="n">
         <v>51755</v>
@@ -7703,7 +7703,7 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>540.6086111111111</v>
+        <v>542.1086111111111</v>
       </c>
       <c r="D404" t="n">
         <v>21797</v>
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>542.2808333333334</v>
+        <v>547.2808333333334</v>
       </c>
       <c r="D405" t="n">
         <v>6400</v>
@@ -7739,7 +7739,7 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>555.1316666666667</v>
+        <v>556.1316666666667</v>
       </c>
       <c r="D406" t="n">
         <v>125247</v>
@@ -7757,7 +7757,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>567.9969444444445</v>
+        <v>570.4969444444445</v>
       </c>
       <c r="D407" t="n">
         <v>40666</v>
@@ -7775,7 +7775,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>570.9</v>
+        <v>571.9</v>
       </c>
       <c r="D408" t="n">
         <v>2735</v>
@@ -7793,7 +7793,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>588.4680555555556</v>
+        <v>591.4680555555556</v>
       </c>
       <c r="D409" t="n">
         <v>4432</v>
@@ -7811,7 +7811,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>594.6427777777777</v>
+        <v>595.6427777777777</v>
       </c>
       <c r="D410" t="n">
         <v>0</v>
@@ -7829,7 +7829,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>600.3383333333334</v>
+        <v>604.3383333333334</v>
       </c>
       <c r="D411" t="n">
         <v>70743</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>619.4025</v>
+        <v>621.4025</v>
       </c>
       <c r="D412" t="n">
         <v>38415</v>
@@ -7865,7 +7865,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>622.9497222222222</v>
+        <v>623.9497222222222</v>
       </c>
       <c r="D413" t="n">
         <v>32</v>
@@ -7883,7 +7883,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>635.5905555555555</v>
+        <v>640.5905555555555</v>
       </c>
       <c r="D414" t="n">
         <v>55312</v>
@@ -7901,7 +7901,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>654.2261111111111</v>
+        <v>656.2261111111111</v>
       </c>
       <c r="D415" t="n">
         <v>3868</v>
@@ -7919,7 +7919,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>659.0744444444445</v>
+        <v>660.0744444444445</v>
       </c>
       <c r="D416" t="n">
         <v>51033</v>
@@ -7937,7 +7937,7 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>677.0619444444444</v>
+        <v>678.5619444444444</v>
       </c>
       <c r="D417" t="n">
         <v>67780</v>
@@ -7955,7 +7955,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>728.0419444444444</v>
+        <v>728.7119444444444</v>
       </c>
       <c r="D418" t="n">
         <v>0</v>
@@ -7973,7 +7973,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>760.4663888888889</v>
+        <v>763.4663888888889</v>
       </c>
       <c r="D419" t="n">
         <v>1754</v>
@@ -7991,7 +7991,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>768.5277777777778</v>
+        <v>770.5277777777778</v>
       </c>
       <c r="D420" t="n">
         <v>625</v>
@@ -8009,7 +8009,7 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>772.9438888888889</v>
+        <v>774.9438888888889</v>
       </c>
       <c r="D421" t="n">
         <v>10340</v>
@@ -8027,7 +8027,7 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>796.8808333333334</v>
+        <v>805.8808333333334</v>
       </c>
       <c r="D422" t="n">
         <v>1549</v>
@@ -8045,7 +8045,7 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>839.5491666666667</v>
+        <v>845.5491666666667</v>
       </c>
       <c r="D423" t="n">
         <v>0</v>
@@ -8063,7 +8063,7 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>900.8683333333333</v>
+        <v>903.3683333333333</v>
       </c>
       <c r="D424" t="n">
         <v>17288</v>
@@ -8081,7 +8081,7 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>924.5708333333333</v>
+        <v>927.5708333333333</v>
       </c>
       <c r="D425" t="n">
         <v>11202</v>
@@ -8099,7 +8099,7 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>926.5005555555556</v>
+        <v>928.5005555555556</v>
       </c>
       <c r="D426" t="n">
         <v>487</v>
@@ -8117,7 +8117,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>950.5494444444445</v>
+        <v>951.5494444444445</v>
       </c>
       <c r="D427" t="n">
         <v>0</v>
@@ -8135,7 +8135,7 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>954.0216666666666</v>
+        <v>956.0216666666666</v>
       </c>
       <c r="D428" t="n">
         <v>633</v>
@@ -8144,73 +8144,73 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>sub063</t>
+          <t>sub064</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>20181129001911</t>
+          <t>20180910000186</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>958.3458333333333</v>
+        <v>960.6541666666667</v>
       </c>
       <c r="D429" t="n">
-        <v>117530</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>sub064</t>
+          <t>sub063</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>20180910000186</t>
+          <t>20181129001911</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>959.6541666666667</v>
+        <v>968.3458333333333</v>
       </c>
       <c r="D430" t="n">
-        <v>0</v>
+        <v>117530</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>sub063</t>
+          <t>sub039</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>20181130000005</t>
+          <t>20170605000297</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>968.0133333333333</v>
+        <v>975.0966666666667</v>
       </c>
       <c r="D431" t="n">
-        <v>47223</v>
+        <v>8307</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>sub039</t>
+          <t>sub063</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>20170605000297</t>
+          <t>20181130000005</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>973.0966666666667</v>
+        <v>978.0133333333333</v>
       </c>
       <c r="D432" t="n">
-        <v>8307</v>
+        <v>47223</v>
       </c>
     </row>
     <row r="433">
@@ -8225,7 +8225,7 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>1045.591944444444</v>
+        <v>1047.591944444444</v>
       </c>
       <c r="D433" t="n">
         <v>10000</v>
@@ -8243,7 +8243,7 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>1060.376111111111</v>
+        <v>1068.376111111111</v>
       </c>
       <c r="D434" t="n">
         <v>6395</v>
@@ -8261,7 +8261,7 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>1116.191944444445</v>
+        <v>1119.191944444445</v>
       </c>
       <c r="D435" t="n">
         <v>0</v>
@@ -8279,7 +8279,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>1154.191388888889</v>
+        <v>1155.191388888889</v>
       </c>
       <c r="D436" t="n">
         <v>53</v>
@@ -8297,7 +8297,7 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>1242.044166666667</v>
+        <v>1247.044166666667</v>
       </c>
       <c r="D437" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>1269.810277777778</v>
+        <v>1271.810277777778</v>
       </c>
       <c r="D438" t="n">
         <v>1099</v>
@@ -8333,7 +8333,7 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>1343.188055555556</v>
+        <v>1345.188055555556</v>
       </c>
       <c r="D439" t="n">
         <v>1477</v>
@@ -8351,7 +8351,7 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>1395.366111111111</v>
+        <v>1397.366111111111</v>
       </c>
       <c r="D440" t="n">
         <v>377</v>
@@ -8369,7 +8369,7 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>1667.656944444444</v>
+        <v>1668.326944444445</v>
       </c>
       <c r="D441" t="n">
         <v>0</v>
@@ -8387,7 +8387,7 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>1770.964166666667</v>
+        <v>1774.964166666667</v>
       </c>
       <c r="D442" t="n">
         <v>0</v>
@@ -8405,7 +8405,7 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>1775.376111111111</v>
+        <v>1784.376111111111</v>
       </c>
       <c r="D443" t="n">
         <v>0</v>
@@ -8423,7 +8423,7 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>1824.718333333333</v>
+        <v>1826.718333333333</v>
       </c>
       <c r="D444" t="n">
         <v>162</v>
@@ -8441,7 +8441,7 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>2639.997222222222</v>
+        <v>2641.997222222222</v>
       </c>
       <c r="D445" t="n">
         <v>451</v>
@@ -8459,7 +8459,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>2751.144166666666</v>
+        <v>2752.644166666666</v>
       </c>
       <c r="D446" t="n">
         <v>0</v>
@@ -8477,7 +8477,7 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>3723.309166666666</v>
+        <v>3729.309166666666</v>
       </c>
       <c r="D447" t="n">
         <v>57</v>
@@ -8495,7 +8495,7 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>4304.5725</v>
+        <v>4307.5725</v>
       </c>
       <c r="D448" t="n">
         <v>72247</v>
@@ -8513,7 +8513,7 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>4322.017777777778</v>
+        <v>4327.017777777778</v>
       </c>
       <c r="D449" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>4531.321944444445</v>
+        <v>4535.321944444445</v>
       </c>
       <c r="D450" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>4799.220555555556</v>
+        <v>4801.220555555556</v>
       </c>
       <c r="D451" t="n">
         <v>0</v>
